--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB8B4E-849B-478F-8938-683ED9D15BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B40C02-D013-42AC-8A42-E315103ED976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
   <si>
     <t>t</t>
   </si>
@@ -285,9 +285,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>reserve_product</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -451,14 +448,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -503,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -512,6 +513,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5100,19 +5102,19 @@
         <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
-        <v>118</v>
-      </c>
       <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -6435,18 +6437,140 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>44671.249999537038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>44671.291666087964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>44671.333332638889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>44671.374999189815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6472,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7164,22 +7288,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8290,15 +8414,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -8306,7 +8430,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8321,7 +8445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E1B63-5DFF-45B5-8C73-71378082DB03}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -8333,15 +8457,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8349,7 +8473,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8357,7 +8481,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8365,7 +8489,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8373,7 +8497,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8381,7 +8505,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -8389,7 +8513,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -8397,7 +8521,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8405,10 +8529,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -8429,15 +8553,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -8445,7 +8569,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -8453,7 +8577,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -9000,24 +9124,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9028,10 +9152,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9070,22 +9194,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
       <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9987,13 +10111,13 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -10053,7 +10177,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -10267,7 +10391,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10380,7 +10504,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
         <v>33</v>
@@ -10441,7 +10565,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10549,7 +10673,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -10644,10 +10768,10 @@
         <v>54</v>
       </c>
       <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -10716,7 +10840,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -10748,13 +10872,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B40C02-D013-42AC-8A42-E315103ED976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20743AFA-F014-4AE0-ABAE-D00F544B0ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -31,14 +31,15 @@
     <sheet name="reserve_realisation" sheetId="16" r:id="rId16"/>
     <sheet name="market_prices" sheetId="17" r:id="rId17"/>
     <sheet name="balance_prices" sheetId="18" r:id="rId18"/>
-    <sheet name="risk" sheetId="19" r:id="rId19"/>
-    <sheet name="scenarios" sheetId="20" r:id="rId20"/>
-    <sheet name="fixed_ts" sheetId="21" r:id="rId21"/>
-    <sheet name="eff_ts" sheetId="22" r:id="rId22"/>
-    <sheet name="cap_ts" sheetId="23" r:id="rId23"/>
-    <sheet name="constraints" sheetId="24" r:id="rId24"/>
-    <sheet name="gen_constraint" sheetId="25" r:id="rId25"/>
-    <sheet name="node_delay" sheetId="26" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId19"/>
+    <sheet name="risk" sheetId="19" r:id="rId20"/>
+    <sheet name="scenarios" sheetId="20" r:id="rId21"/>
+    <sheet name="fixed_ts" sheetId="21" r:id="rId22"/>
+    <sheet name="eff_ts" sheetId="22" r:id="rId23"/>
+    <sheet name="cap_ts" sheetId="23" r:id="rId24"/>
+    <sheet name="constraints" sheetId="24" r:id="rId25"/>
+    <sheet name="gen_constraint" sheetId="25" r:id="rId26"/>
+    <sheet name="node_delay" sheetId="26" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>t</t>
   </si>
@@ -4614,192 +4615,192 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44566.333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44566.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44566.354166666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44566.364583333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44566.375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44566.385416666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44566.395833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44566.40625</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44566.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44566.427083333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44566.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44566.447916666664</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44566.458333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44566.46875</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44566.479166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44566.489583333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44566.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44566.510416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44566.520833333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44566.53125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44566.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44566.552083333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44566.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44566.572916666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44566.583333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44566.59375</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44566.604166666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44566.614583333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44566.625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44566.635416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44566.645833333336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44566.65625</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44566.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44566.677083333336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44566.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44566.697916666664</v>
       </c>
@@ -4815,9 +4816,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -4838,242 +4839,242 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -5089,12 +5090,12 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
@@ -5141,7 +5142,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
@@ -5167,7 +5168,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
@@ -5194,7 +5195,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
@@ -5220,7 +5221,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
@@ -5246,7 +5247,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
@@ -5272,7 +5273,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
@@ -5298,7 +5299,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
@@ -5324,7 +5325,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
@@ -5350,7 +5351,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
@@ -5376,7 +5377,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
@@ -5400,7 +5401,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
@@ -5425,7 +5426,7 @@
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
@@ -5449,7 +5450,7 @@
         <v>-7.94</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
@@ -5473,7 +5474,7 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
@@ -5497,7 +5498,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
@@ -5521,7 +5522,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
@@ -5545,7 +5546,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
@@ -5569,7 +5570,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
@@ -5593,7 +5594,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
@@ -5617,7 +5618,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
@@ -5641,7 +5642,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
@@ -5665,7 +5666,7 @@
         <v>-4.49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
@@ -5689,7 +5690,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
@@ -5713,7 +5714,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
@@ -5737,7 +5738,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
@@ -5761,7 +5762,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
@@ -5785,7 +5786,7 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
@@ -5809,7 +5810,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
@@ -5833,7 +5834,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
@@ -5857,7 +5858,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
@@ -5881,7 +5882,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
@@ -5905,7 +5906,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
@@ -5929,7 +5930,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
@@ -5953,7 +5954,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
@@ -5977,7 +5978,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
@@ -6001,19 +6002,19 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -6031,59 +6032,59 @@
       <selection activeCell="E14" sqref="A14:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6101,242 +6102,242 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -6352,9 +6353,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -6439,136 +6440,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44671.249999537038</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44671.291666087964</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44671.333332638889</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44671.374999189815</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>130</v>
       </c>
@@ -6583,15 +6584,15 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
@@ -6620,7 +6621,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
@@ -6638,7 +6639,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
@@ -6656,7 +6657,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
@@ -6674,7 +6675,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
@@ -6692,7 +6693,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
@@ -6710,7 +6711,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
@@ -6728,7 +6729,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
@@ -6746,7 +6747,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
@@ -6764,7 +6765,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
@@ -6782,7 +6783,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
@@ -6800,7 +6801,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
@@ -6818,7 +6819,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
@@ -6836,7 +6837,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
@@ -6854,7 +6855,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
@@ -6872,7 +6873,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
@@ -6890,7 +6891,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
@@ -6908,7 +6909,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
@@ -6926,7 +6927,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
@@ -6944,7 +6945,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
@@ -6962,7 +6963,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
@@ -6980,7 +6981,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
@@ -6998,7 +6999,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
@@ -7016,7 +7017,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
@@ -7034,7 +7035,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
@@ -7052,7 +7053,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
@@ -7070,7 +7071,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
@@ -7088,7 +7089,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
@@ -7106,7 +7107,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
@@ -7124,7 +7125,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
@@ -7142,7 +7143,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
@@ -7160,7 +7161,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
@@ -7178,7 +7179,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
@@ -7196,7 +7197,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
@@ -7214,7 +7215,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
@@ -7232,7 +7233,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
@@ -7250,17 +7251,17 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -7278,12 +7279,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
@@ -7336,7 +7337,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
@@ -7366,7 +7367,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
@@ -7396,7 +7397,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
@@ -7426,7 +7427,7 @@
         <v>-3.21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
@@ -7456,7 +7457,7 @@
         <v>-5.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
@@ -7486,7 +7487,7 @@
         <v>-5.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
@@ -7516,7 +7517,7 @@
         <v>-5.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
@@ -7546,7 +7547,7 @@
         <v>-3.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
@@ -7576,7 +7577,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
@@ -7606,7 +7607,7 @@
         <v>12.290000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
@@ -7636,7 +7637,7 @@
         <v>15.790000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
@@ -7666,7 +7667,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
@@ -7696,7 +7697,7 @@
         <v>37.79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
@@ -7726,7 +7727,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
@@ -7756,7 +7757,7 @@
         <v>47.29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
@@ -7786,7 +7787,7 @@
         <v>34.090000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
@@ -7816,7 +7817,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
@@ -7846,7 +7847,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
@@ -7876,7 +7877,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
@@ -7906,7 +7907,7 @@
         <v>-5.01</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
@@ -7936,7 +7937,7 @@
         <v>-1.61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
@@ -7966,7 +7967,7 @@
         <v>3.0900000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
@@ -7996,7 +7997,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
@@ -8026,7 +8027,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
@@ -8056,7 +8057,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
@@ -8086,7 +8087,7 @@
         <v>6.49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
@@ -8116,7 +8117,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
@@ -8146,7 +8147,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
@@ -8176,7 +8177,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
@@ -8206,7 +8207,7 @@
         <v>10.290000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
@@ -8236,7 +8237,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
@@ -8266,7 +8267,7 @@
         <v>17.29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
@@ -8296,7 +8297,7 @@
         <v>21.189999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
@@ -8326,7 +8327,7 @@
         <v>33.89</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
@@ -8356,7 +8357,7 @@
         <v>32.79</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
@@ -8386,16 +8387,16 @@
         <v>18.79</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -8405,39 +8406,305 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DC2082-9720-4483-BF3C-CABDB947625E}">
+  <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3">
         <v>0</v>
       </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>timeseries!A2</f>
+        <v>44566.333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>timeseries!A3</f>
+        <v>44566.34375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>timeseries!A4</f>
+        <v>44566.354166666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>timeseries!A5</f>
+        <v>44566.364583333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>timeseries!A6</f>
+        <v>44566.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>timeseries!A7</f>
+        <v>44566.385416666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>timeseries!A8</f>
+        <v>44566.395833333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>timeseries!A9</f>
+        <v>44566.40625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>timeseries!A10</f>
+        <v>44566.416666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>timeseries!A11</f>
+        <v>44566.427083333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>timeseries!A12</f>
+        <v>44566.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>timeseries!A13</f>
+        <v>44566.447916666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>timeseries!A14</f>
+        <v>44566.458333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>timeseries!A15</f>
+        <v>44566.46875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>timeseries!A16</f>
+        <v>44566.479166666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>timeseries!A17</f>
+        <v>44566.489583333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>timeseries!A18</f>
+        <v>44566.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>timeseries!A19</f>
+        <v>44566.510416666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>timeseries!A20</f>
+        <v>44566.520833333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>timeseries!A21</f>
+        <v>44566.53125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>timeseries!A22</f>
+        <v>44566.541666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>timeseries!A23</f>
+        <v>44566.552083333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>timeseries!A24</f>
+        <v>44566.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>timeseries!A25</f>
+        <v>44566.572916666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>timeseries!A26</f>
+        <v>44566.583333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>timeseries!A27</f>
+        <v>44566.59375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>timeseries!A28</f>
+        <v>44566.604166666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>timeseries!A29</f>
+        <v>44566.614583333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>timeseries!A30</f>
+        <v>44566.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>timeseries!A31</f>
+        <v>44566.635416666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>timeseries!A32</f>
+        <v>44566.645833333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>timeseries!A33</f>
+        <v>44566.65625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f>timeseries!A34</f>
+        <v>44566.666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f>timeseries!A35</f>
+        <v>44566.677083333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>timeseries!A36</f>
+        <v>44566.6875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>timeseries!A37</f>
+        <v>44566.697916666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8449,13 +8716,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -8463,7 +8730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -8471,7 +8738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -8479,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -8487,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -8495,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -8503,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -8511,7 +8778,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -8519,7 +8786,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -8527,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -8542,6 +8809,43 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8549,9 +8853,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -8559,7 +8863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -8567,7 +8871,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -8575,7 +8879,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -8589,15 +8893,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8607,7 +8911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
@@ -8615,242 +8919,242 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -8858,7 +9162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
@@ -8866,242 +9170,242 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -9109,7 +9413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9117,12 +9421,12 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -9136,7 +9440,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -9150,7 +9454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -9170,7 +9474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -9178,18 +9482,18 @@
       <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9212,7 +9516,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
@@ -9236,7 +9540,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
@@ -9260,7 +9564,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
@@ -9284,7 +9588,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
@@ -9308,7 +9612,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
@@ -9332,7 +9636,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
@@ -9356,7 +9660,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
@@ -9380,7 +9684,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
@@ -9404,7 +9708,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
@@ -9428,7 +9732,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
@@ -9452,7 +9756,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
@@ -9476,7 +9780,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
@@ -9500,7 +9804,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
@@ -9524,7 +9828,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
@@ -9548,7 +9852,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
@@ -9572,7 +9876,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
@@ -9596,7 +9900,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
@@ -9620,7 +9924,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
@@ -9644,7 +9948,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
@@ -9668,7 +9972,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
@@ -9692,7 +9996,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
@@ -9716,7 +10020,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
@@ -9740,7 +10044,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
@@ -9764,7 +10068,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
@@ -9788,7 +10092,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
@@ -9812,7 +10116,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
@@ -9836,7 +10140,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
@@ -9860,7 +10164,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
@@ -9884,7 +10188,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
@@ -9908,7 +10212,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
@@ -9932,7 +10236,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
@@ -9956,7 +10260,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
@@ -9980,7 +10284,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
@@ -10004,7 +10308,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
@@ -10028,7 +10332,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
@@ -10052,7 +10356,7 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
@@ -10076,16 +10380,16 @@
         <v>292.14999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -10095,15 +10399,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -10133,13 +10437,13 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10189,7 +10493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -10239,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -10289,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -10339,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -10389,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -10455,9 +10759,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10510,7 +10814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -10563,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -10616,19 +10920,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P8" s="4"/>
     </row>
   </sheetData>
@@ -10644,9 +10948,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -10657,7 +10961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -10668,7 +10972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -10690,9 +10994,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10740,9 +11044,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10774,7 +11078,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -10806,7 +11110,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -10838,7 +11142,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -10870,7 +11174,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -10915,242 +11219,242 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>timeseries!A2</f>
         <v>44566.333333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>timeseries!A3</f>
         <v>44566.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>timeseries!A4</f>
         <v>44566.354166666664</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>timeseries!A5</f>
         <v>44566.364583333336</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>timeseries!A6</f>
         <v>44566.375</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>timeseries!A7</f>
         <v>44566.385416666664</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>timeseries!A8</f>
         <v>44566.395833333336</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>timeseries!A9</f>
         <v>44566.40625</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>timeseries!A10</f>
         <v>44566.416666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>timeseries!A11</f>
         <v>44566.427083333336</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>timeseries!A12</f>
         <v>44566.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>timeseries!A13</f>
         <v>44566.447916666664</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>timeseries!A14</f>
         <v>44566.458333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>timeseries!A15</f>
         <v>44566.46875</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>timeseries!A16</f>
         <v>44566.479166666664</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>timeseries!A17</f>
         <v>44566.489583333336</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>timeseries!A18</f>
         <v>44566.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>timeseries!A19</f>
         <v>44566.510416666664</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>timeseries!A20</f>
         <v>44566.520833333336</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>timeseries!A21</f>
         <v>44566.53125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>timeseries!A22</f>
         <v>44566.541666666664</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>timeseries!A23</f>
         <v>44566.552083333336</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>timeseries!A24</f>
         <v>44566.5625</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>timeseries!A25</f>
         <v>44566.572916666664</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>timeseries!A26</f>
         <v>44566.583333333336</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>timeseries!A27</f>
         <v>44566.59375</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>timeseries!A28</f>
         <v>44566.604166666664</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>timeseries!A29</f>
         <v>44566.614583333336</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>timeseries!A30</f>
         <v>44566.625</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>timeseries!A31</f>
         <v>44566.635416666664</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>timeseries!A32</f>
         <v>44566.645833333336</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>timeseries!A33</f>
         <v>44566.65625</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>timeseries!A34</f>
         <v>44566.666666666664</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>timeseries!A35</f>
         <v>44566.677083333336</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>timeseries!A36</f>
         <v>44566.6875</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>timeseries!A37</f>
         <v>44566.697916666664</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -11166,9 +11470,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -11179,7 +11483,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11190,7 +11494,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>

--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20743AFA-F014-4AE0-ABAE-D00F544B0ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB957C2-5A46-4BB3-AF5E-A05FD4C36F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -28,18 +28,19 @@
     <sheet name="inflow_blocks" sheetId="13" r:id="rId13"/>
     <sheet name="price" sheetId="14" r:id="rId14"/>
     <sheet name="markets" sheetId="15" r:id="rId15"/>
-    <sheet name="reserve_realisation" sheetId="16" r:id="rId16"/>
-    <sheet name="market_prices" sheetId="17" r:id="rId17"/>
-    <sheet name="balance_prices" sheetId="18" r:id="rId18"/>
-    <sheet name="reserve_activation_price" sheetId="28" r:id="rId19"/>
-    <sheet name="risk" sheetId="19" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="20" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="21" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="22" r:id="rId23"/>
-    <sheet name="cap_ts" sheetId="23" r:id="rId24"/>
-    <sheet name="constraints" sheetId="24" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="25" r:id="rId26"/>
-    <sheet name="node_delay" sheetId="26" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="29" r:id="rId16"/>
+    <sheet name="reserve_realisation" sheetId="16" r:id="rId17"/>
+    <sheet name="market_prices" sheetId="17" r:id="rId18"/>
+    <sheet name="balance_prices" sheetId="18" r:id="rId19"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
+    <sheet name="risk" sheetId="19" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="20" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="21" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="22" r:id="rId24"/>
+    <sheet name="cap_ts" sheetId="23" r:id="rId25"/>
+    <sheet name="constraints" sheetId="24" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="25" r:id="rId27"/>
+    <sheet name="node_delay" sheetId="26" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
   <si>
     <t>t</t>
   </si>
@@ -6437,6 +6438,257 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30BD1D0-0D6A-4566-B94D-DCAB0DDD30BE}">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>timeseries!A2</f>
+        <v>44566.333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>timeseries!A3</f>
+        <v>44566.34375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>timeseries!A4</f>
+        <v>44566.354166666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>timeseries!A5</f>
+        <v>44566.364583333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>timeseries!A6</f>
+        <v>44566.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>timeseries!A7</f>
+        <v>44566.385416666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>timeseries!A8</f>
+        <v>44566.395833333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>timeseries!A9</f>
+        <v>44566.40625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>timeseries!A10</f>
+        <v>44566.416666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>timeseries!A11</f>
+        <v>44566.427083333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>timeseries!A12</f>
+        <v>44566.4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>timeseries!A13</f>
+        <v>44566.447916666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>timeseries!A14</f>
+        <v>44566.458333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>timeseries!A15</f>
+        <v>44566.46875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>timeseries!A16</f>
+        <v>44566.479166666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>timeseries!A17</f>
+        <v>44566.489583333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>timeseries!A18</f>
+        <v>44566.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>timeseries!A19</f>
+        <v>44566.510416666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>timeseries!A20</f>
+        <v>44566.520833333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>timeseries!A21</f>
+        <v>44566.53125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>timeseries!A22</f>
+        <v>44566.541666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>timeseries!A23</f>
+        <v>44566.552083333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>timeseries!A24</f>
+        <v>44566.5625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>timeseries!A25</f>
+        <v>44566.572916666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>timeseries!A26</f>
+        <v>44566.583333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>timeseries!A27</f>
+        <v>44566.59375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>timeseries!A28</f>
+        <v>44566.604166666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>timeseries!A29</f>
+        <v>44566.614583333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>timeseries!A30</f>
+        <v>44566.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>timeseries!A31</f>
+        <v>44566.635416666664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>timeseries!A32</f>
+        <v>44566.645833333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>timeseries!A33</f>
+        <v>44566.65625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f>timeseries!A34</f>
+        <v>44566.666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f>timeseries!A35</f>
+        <v>44566.677083333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>timeseries!A36</f>
+        <v>44566.6875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>timeseries!A37</f>
+        <v>44566.697916666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -6579,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -7271,7 +7523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -8405,11 +8657,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E1B63-5DFF-45B5-8C73-71378082DB03}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DC2082-9720-4483-BF3C-CABDB947625E}">
   <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -8708,107 +9060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E1B63-5DFF-45B5-8C73-71378082DB03}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8845,7 +9097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -8893,7 +9145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8911,7 +9163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
@@ -9162,7 +9414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
@@ -9413,7 +9665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9474,7 +9726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -10399,7 +10651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>

--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB957C2-5A46-4BB3-AF5E-A05FD4C36F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43B928-2BD8-4B65-BB65-CEB35F967E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="efficiencies" sheetId="6" r:id="rId6"/>
     <sheet name="process_topology" sheetId="7" r:id="rId7"/>
     <sheet name="node_history" sheetId="8" r:id="rId8"/>
-    <sheet name="node_diffusion" sheetId="9" r:id="rId9"/>
+    <sheet name="node_diffusion" sheetId="30" r:id="rId9"/>
     <sheet name="reserve_type" sheetId="10" r:id="rId10"/>
     <sheet name="cf" sheetId="11" r:id="rId11"/>
     <sheet name="inflow" sheetId="12" r:id="rId12"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
   <si>
     <t>t</t>
   </si>
@@ -239,9 +239,6 @@
     <t>node2</t>
   </si>
   <si>
-    <t>diff_coeff</t>
-  </si>
-  <si>
     <t>ramp_factor</t>
   </si>
   <si>
@@ -453,6 +450,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>interiorair,buildingenvelope,s1</t>
+  </si>
+  <si>
+    <t>interiorair,buildingenvelope,s2</t>
+  </si>
+  <si>
+    <t>interiorair,buildingenvelope,s3</t>
+  </si>
+  <si>
+    <t>buildingenvelope,outside,s1</t>
+  </si>
+  <si>
+    <t>buildingenvelope,outside,s2</t>
+  </si>
+  <si>
+    <t>buildingenvelope,outside,s3</t>
   </si>
 </sst>
 </file>
@@ -4824,7 +4839,7 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5101,22 +5116,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6358,7 +6373,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -6367,39 +6382,39 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -6408,13 +6423,13 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -6441,7 +6456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F30BD1D0-0D6A-4566-B94D-DCAB0DDD30BE}">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -6758,72 +6773,72 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6849,13 +6864,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7541,22 +7556,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8673,15 +8688,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8689,7 +8704,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8697,7 +8712,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8705,7 +8720,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8713,7 +8728,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8721,7 +8736,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -8729,7 +8744,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -8737,7 +8752,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8745,10 +8760,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -9070,15 +9085,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -9086,7 +9101,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9109,15 +9124,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -9125,7 +9140,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -9133,7 +9148,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -9680,24 +9695,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9708,10 +9723,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9750,22 +9765,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10667,13 +10682,13 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -10733,7 +10748,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
@@ -10947,7 +10962,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11060,7 +11075,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q1" t="s">
         <v>33</v>
@@ -11121,7 +11136,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11229,7 +11244,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -11324,10 +11339,10 @@
         <v>54</v>
       </c>
       <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
         <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11396,7 +11411,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -11428,13 +11443,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11715,50 +11730,919 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF5E8BD-BA4C-4A0B-8835-C863FA3AC545}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f>timeseries!A2</f>
+        <v>44566.333333333336</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
       </c>
       <c r="C2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>timeseries!A3</f>
+        <v>44566.34375</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
       </c>
       <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
         <v>0.2</v>
       </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>timeseries!A4</f>
+        <v>44566.354166666664</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>timeseries!A5</f>
+        <v>44566.364583333336</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>timeseries!A6</f>
+        <v>44566.375</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>timeseries!A7</f>
+        <v>44566.385416666664</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>timeseries!A8</f>
+        <v>44566.395833333336</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>timeseries!A9</f>
+        <v>44566.40625</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>timeseries!A10</f>
+        <v>44566.416666666664</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
+        <v>0.25</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>timeseries!A11</f>
+        <v>44566.427083333336</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>timeseries!A12</f>
+        <v>44566.4375</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>timeseries!A13</f>
+        <v>44566.447916666664</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f>timeseries!A14</f>
+        <v>44566.458333333336</v>
+      </c>
+      <c r="B14">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f>timeseries!A15</f>
+        <v>44566.46875</v>
+      </c>
+      <c r="B15">
+        <v>0.25</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f>timeseries!A16</f>
+        <v>44566.479166666664</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>timeseries!A17</f>
+        <v>44566.489583333336</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>0.25</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f>timeseries!A18</f>
+        <v>44566.5</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f>timeseries!A19</f>
+        <v>44566.510416666664</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>0.25</v>
+      </c>
+      <c r="D19">
+        <v>0.25</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f>timeseries!A20</f>
+        <v>44566.520833333336</v>
+      </c>
+      <c r="B20">
+        <v>0.25</v>
+      </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f>timeseries!A21</f>
+        <v>44566.53125</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21">
+        <v>0.25</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>timeseries!A22</f>
+        <v>44566.541666666664</v>
+      </c>
+      <c r="B22">
+        <v>0.25</v>
+      </c>
+      <c r="C22">
+        <v>0.25</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>timeseries!A23</f>
+        <v>44566.552083333336</v>
+      </c>
+      <c r="B23">
+        <v>0.25</v>
+      </c>
+      <c r="C23">
+        <v>0.25</v>
+      </c>
+      <c r="D23">
+        <v>0.25</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>timeseries!A24</f>
+        <v>44566.5625</v>
+      </c>
+      <c r="B24">
+        <v>0.25</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+      <c r="D24">
+        <v>0.25</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>timeseries!A25</f>
+        <v>44566.572916666664</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+      <c r="D25">
+        <v>0.25</v>
+      </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>timeseries!A26</f>
+        <v>44566.583333333336</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>0.25</v>
+      </c>
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>timeseries!A27</f>
+        <v>44566.59375</v>
+      </c>
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <v>0.25</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>timeseries!A28</f>
+        <v>44566.604166666664</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <v>0.25</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>timeseries!A29</f>
+        <v>44566.614583333336</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <v>0.25</v>
+      </c>
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>timeseries!A30</f>
+        <v>44566.625</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+      <c r="D30">
+        <v>0.25</v>
+      </c>
+      <c r="E30">
+        <v>0.2</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>timeseries!A31</f>
+        <v>44566.635416666664</v>
+      </c>
+      <c r="B31">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>0.25</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
+      </c>
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+      <c r="F31">
+        <v>0.2</v>
+      </c>
+      <c r="G31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>timeseries!A32</f>
+        <v>44566.645833333336</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>0.25</v>
+      </c>
+      <c r="D32">
+        <v>0.25</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+      <c r="F32">
+        <v>0.2</v>
+      </c>
+      <c r="G32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>timeseries!A33</f>
+        <v>44566.65625</v>
+      </c>
+      <c r="B33">
+        <v>0.25</v>
+      </c>
+      <c r="C33">
+        <v>0.25</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
+      </c>
+      <c r="E33">
+        <v>0.2</v>
+      </c>
+      <c r="F33">
+        <v>0.2</v>
+      </c>
+      <c r="G33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f>timeseries!A34</f>
+        <v>44566.666666666664</v>
+      </c>
+      <c r="B34">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <v>0.25</v>
+      </c>
+      <c r="D34">
+        <v>0.25</v>
+      </c>
+      <c r="E34">
+        <v>0.2</v>
+      </c>
+      <c r="F34">
+        <v>0.2</v>
+      </c>
+      <c r="G34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f>timeseries!A35</f>
+        <v>44566.677083333336</v>
+      </c>
+      <c r="B35">
+        <v>0.25</v>
+      </c>
+      <c r="C35">
+        <v>0.25</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+      <c r="E35">
+        <v>0.2</v>
+      </c>
+      <c r="F35">
+        <v>0.2</v>
+      </c>
+      <c r="G35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>timeseries!A36</f>
+        <v>44566.6875</v>
+      </c>
+      <c r="B36">
+        <v>0.25</v>
+      </c>
+      <c r="C36">
+        <v>0.25</v>
+      </c>
+      <c r="D36">
+        <v>0.25</v>
+      </c>
+      <c r="E36">
+        <v>0.2</v>
+      </c>
+      <c r="F36">
+        <v>0.2</v>
+      </c>
+      <c r="G36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>timeseries!A37</f>
+        <v>44566.697916666664</v>
+      </c>
+      <c r="B37">
+        <v>0.25</v>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+      <c r="D37">
+        <v>0.25</v>
+      </c>
+      <c r="E37">
+        <v>0.2</v>
+      </c>
+      <c r="F37">
+        <v>0.2</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43B928-2BD8-4B65-BB65-CEB35F967E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F2B21-D6F5-4094-97F4-43C99F4A7964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>t</t>
   </si>
@@ -104,9 +104,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>residual_value</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>electricheater</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>entity</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>capacity</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>ramp_up</t>
   </si>
   <si>
@@ -468,6 +459,18 @@
   </si>
   <si>
     <t>buildingenvelope,outside,s3</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -4830,16 +4833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5116,22 +5121,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6366,70 +6371,70 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -6773,72 +6778,72 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6864,13 +6869,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7556,22 +7561,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8688,15 +8693,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8704,7 +8709,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8712,7 +8717,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -8720,7 +8725,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8728,7 +8733,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8736,7 +8741,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -8744,7 +8749,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -8752,7 +8757,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8760,10 +8765,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9085,15 +9090,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -9101,7 +9106,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9124,15 +9129,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -9140,7 +9145,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -9148,7 +9153,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -9695,24 +9700,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9723,10 +9728,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9765,22 +9770,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10676,19 +10681,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -10701,7 +10706,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,21 +10753,21 @@
         <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10812,7 +10817,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10862,7 +10867,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10912,7 +10917,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10962,7 +10967,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11030,60 +11035,60 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
       </c>
       <c r="O1" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11136,7 +11141,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11211,43 +11216,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -11265,37 +11270,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11308,52 +11313,52 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -11379,13 +11384,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -11411,13 +11416,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -11443,13 +11448,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11733,7 +11738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF5E8BD-BA4C-4A0B-8835-C863FA3AC545}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -11747,22 +11752,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F2B21-D6F5-4094-97F4-43C99F4A7964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571D60A-8684-462A-BBBA-7356690E0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -5107,9 +5107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10705,8 +10703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" activeCellId="1" sqref="O4 K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11216,8 +11214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0571D60A-8684-462A-BBBA-7356690E0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6616374-1EA8-4B5B-A439-984415819466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -9687,8 +9687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10703,7 +10703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" activeCellId="1" sqref="O4 K15"/>
     </sheetView>
   </sheetViews>

--- a/input_data/simple_building_model.xlsx
+++ b/input_data/simple_building_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6616374-1EA8-4B5B-A439-984415819466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8304A03E-85EB-4300-878B-E03825236286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
   <si>
     <t>t</t>
   </si>
@@ -356,9 +356,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -471,6 +468,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -5122,19 +5125,19 @@
         <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
       <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6379,7 +6382,7 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -6776,72 +6779,72 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6870,10 +6873,10 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7562,19 +7565,19 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
         <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8677,10 +8680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E1B63-5DFF-45B5-8C73-71378082DB03}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8739,7 +8742,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -8747,7 +8750,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -8755,7 +8758,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8763,10 +8766,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -9143,7 +9154,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -9151,7 +9162,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -9687,7 +9698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -9774,16 +9785,16 @@
         <v>89</v>
       </c>
       <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10751,13 +10762,13 @@
         <v>12</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
@@ -10965,7 +10976,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11078,7 +11089,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q1" t="s">
         <v>32</v>
@@ -11139,7 +11150,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11222,7 +11233,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
@@ -11247,7 +11258,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -11333,7 +11344,7 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
         <v>50</v>
@@ -11342,10 +11353,10 @@
         <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
         <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11414,7 +11425,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -11446,13 +11457,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -11750,22 +11761,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
